--- a/Data/Input/TaskList.xlsx
+++ b/Data/Input/TaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>ReqID</t>
   </si>
@@ -104,12 +104,6 @@
     <t>In_Progress</t>
   </si>
   <si>
-    <t>chandru.karunanithi@gramenerit.com</t>
-  </si>
-  <si>
-    <t>kchandru05@gmail.com</t>
-  </si>
-  <si>
     <t>Developer</t>
   </si>
   <si>
@@ -159,6 +153,18 @@
   </si>
   <si>
     <t>EndDate</t>
+  </si>
+  <si>
+    <t>dev@gmail.com</t>
+  </si>
+  <si>
+    <t>dev1@gmail.com</t>
+  </si>
+  <si>
+    <t>tester@gmail.com</t>
+  </si>
+  <si>
+    <t>tester1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +187,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,10 +217,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,8 +238,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,9 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -517,12 +532,12 @@
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.28515625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="7" customWidth="1"/>
     <col min="11" max="12" width="11.85546875" style="9" customWidth="1"/>
     <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
@@ -546,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -555,52 +570,52 @@
         <v>14</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -620,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="9">
         <v>43331</v>
@@ -629,10 +644,10 @@
         <v>43333</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K2" s="9">
         <v>43331</v>
@@ -643,13 +658,13 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S2" s="2"/>
       <c r="U2" s="9">
@@ -685,10 +700,10 @@
         <v>43334</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3" s="9">
         <v>43331</v>
@@ -699,7 +714,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
@@ -741,10 +756,10 @@
         <v>43337</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K4" s="9">
         <v>43332</v>
@@ -755,13 +770,13 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S4" s="2"/>
       <c r="U4" s="9">
@@ -785,7 +800,7 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -797,7 +812,7 @@
         <v>43341</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K5" s="9">
         <v>43332</v>
@@ -808,7 +823,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
         <v>24</v>
@@ -850,7 +865,7 @@
         <v>43340</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="K6" s="9">
         <v>43334</v>
@@ -861,13 +876,13 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S6" s="2"/>
       <c r="U6" s="9">
@@ -876,6 +891,9 @@
       <c r="V6" s="9">
         <v>43326</v>
       </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E8" s="5"/>
